--- a/LOTR.xlsx
+++ b/LOTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blaz/Desktop/LOTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF50C21-CDFC-B943-882C-D76096A678DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2100AA-EAB6-FB49-B216-098EEDC5408C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="620" windowWidth="22500" windowHeight="15360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="The Silmarillion" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="133">
   <si>
     <t>Polarity</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>Removed 4 prologue chapters of The Fellowship of the Ring and added a treadline</t>
+  </si>
+  <si>
+    <t>Use topic modeling to take a deeper look at chapters that have a polarity of 0</t>
   </si>
 </sst>
 </file>
@@ -1623,6 +1626,41 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>LOTR Polarity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (Subsequent)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1636,13 +1674,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1661,371 +1705,225 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Combined!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Polarity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Combined!$A$2:$A$114</c:f>
+              <c:f>Combined!$A$49:$A$114</c:f>
               <c:strCache>
-                <c:ptCount val="113"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>Ainundalë</c:v>
+                  <c:v>Concerning Hobbits</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Valaquenta</c:v>
+                  <c:v>Concerning Pipeweed</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Of the Beginning of Days</c:v>
+                  <c:v>Of the Ordering of the Shire</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Of Aulë and Yavanna</c:v>
+                  <c:v>Note on the Shire Records</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Of the Coming of the Elves and the Captivity of Melkor</c:v>
+                  <c:v>A Long-expected Party</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Of Thingol and Melian</c:v>
+                  <c:v>The Shadow of the Past</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Of Eldamar and the Princes of the Eldali√´</c:v>
+                  <c:v>Three is Company</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Of F√´anor and the Unchaining of Melkor</c:v>
+                  <c:v>A Short Cut to Mushrooms</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Of the Silmarils and the Unrest of the Noldor</c:v>
+                  <c:v>A Conspiracy Unmasked</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Of the Darkening of Valinor</c:v>
+                  <c:v>The Old Forest</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Of the Flight of the Noldor</c:v>
+                  <c:v>In the House of Tom Bombadil</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Of the Sindar</c:v>
+                  <c:v>Fog on the Barrow-downs</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Of the Sun and Moon and the Hiding of Valinor</c:v>
+                  <c:v>At the Sign of the Prancing Pony</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Of Men</c:v>
+                  <c:v>Strider</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Of the Return of the Noldor</c:v>
+                  <c:v>A Knife in the Dark</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Of Beleriad and its Realms</c:v>
+                  <c:v>Flight to the Ford</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Of the Noldor in Beleriad</c:v>
+                  <c:v>Many Meetings</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Of Maeglin</c:v>
+                  <c:v>The Council of Elrond</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Of the Coming of Men into the West</c:v>
+                  <c:v>The Ring goes South</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Of the Ruin of Beleriad and the Fall of Fingolfin</c:v>
+                  <c:v>A Journey in the Dark</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Of Beren and L√∫thien</c:v>
+                  <c:v>The Bridge of Khazad-d√ªm</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Of the Fifth Battle: Nirnaeth Arnoediad</c:v>
+                  <c:v>Lothl√≥rien</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Of T√∫rin Turambar</c:v>
+                  <c:v>The Mirror of Galadriel</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Of the Ruin of Doriath</c:v>
+                  <c:v>Farewell to L√≥rien</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Of Tuor and the Fall of Gondolin</c:v>
+                  <c:v>The Great River</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Of the Voyage of E√§rendil and the War of Wrath</c:v>
+                  <c:v>The Breaking of the Fellowship</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Akallab√™th: The Downfall of N√∫menor</c:v>
+                  <c:v>The Departure of Boromir</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Of the Rings of Power and the Third Age</c:v>
+                  <c:v>The Riders of Rohan</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>An Unexpected Party</c:v>
+                  <c:v>The Uruk-hai</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Roast Mutton</c:v>
+                  <c:v>Treebeard</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>A Short Rest</c:v>
+                  <c:v>The White Rider</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Over Hill and Under Hill</c:v>
+                  <c:v>The King of the Golden Hall</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Riddles In The Dark</c:v>
+                  <c:v>Helm's Deep</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Out Of The Frying-Pan Into The Fire</c:v>
+                  <c:v>The Road to Isengard</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>Queer Lodgings</c:v>
+                  <c:v>Flotsam and Jetsam</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Flies And Spiders</c:v>
+                  <c:v>The Voice of Saruman</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>Barrels Out Of Bond</c:v>
+                  <c:v>The Palant√≠r</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>A Warm Welcome</c:v>
+                  <c:v>The Taming of Smeagol</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>On The Doorstep</c:v>
+                  <c:v>The Passage of the Marshes</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>Inside Information</c:v>
+                  <c:v>The Black Gate is Closed</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>Not At Home</c:v>
+                  <c:v>Of Herbs and Stewed Rabbit</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>Fire And Water</c:v>
+                  <c:v>The Window of the West</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>The Gathering Of The Clouds</c:v>
+                  <c:v>The Forbidden Pool</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>A Thief In The Night</c:v>
+                  <c:v>Journey to the Cross-roads</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>The Clouds Burst</c:v>
+                  <c:v>The Stairs to Cirith Ungol</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>The Return Journey</c:v>
+                  <c:v>Shelob's Lair</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>The Last Stage</c:v>
+                  <c:v>The Choices of Master Samwise</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>Concerning Hobbits</c:v>
+                  <c:v>Minas Tirith</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>Concerning Pipeweed</c:v>
+                  <c:v>The Passing of the Grey Company</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>Of the Ordering of the Shire</c:v>
+                  <c:v>The Muster of Rohan</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>Note on the Shire Records</c:v>
+                  <c:v>The Siege of Gondor</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>A Long-expected Party</c:v>
+                  <c:v>The Ride of Rohirrim</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>The Shadow of the Past</c:v>
+                  <c:v>The Battle of the Pelennor Fields</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>Three is Company</c:v>
+                  <c:v>The Pyre of Denethor</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>A Short Cut to Mushrooms</c:v>
+                  <c:v>The Houses of Healing</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>A Conspiracy Unmasked</c:v>
+                  <c:v>The Last Debate</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>The Old Forest</c:v>
+                  <c:v>The Black Gate Opens</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>In the House of Tom Bombadil</c:v>
+                  <c:v>The Tower of Cirith Ungol</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>Fog on the Barrow-downs</c:v>
+                  <c:v>The Land of Shadow</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>At the Sign of the Prancing Pony</c:v>
+                  <c:v>Mount Doom</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>Strider</c:v>
+                  <c:v>The Field of Cormallen</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>A Knife in the Dark</c:v>
+                  <c:v>The Steward and the King</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>Flight to the Ford</c:v>
+                  <c:v>Many Partings</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>Many Meetings</c:v>
+                  <c:v>Homeward Bound</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>The Council of Elrond</c:v>
+                  <c:v>Scouring of the Shire</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>The Ring goes South</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>A Journey in the Dark</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>The Bridge of Khazad-d√ªm</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>Lothl√≥rien</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>The Mirror of Galadriel</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Farewell to L√≥rien</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>The Great River</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>The Breaking of the Fellowship</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>The Departure of Boromir</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>The Riders of Rohan</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>The Uruk-hai</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>Treebeard</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>The White Rider</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>The King of the Golden Hall</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>Helm's Deep</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>The Road to Isengard</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>Flotsam and Jetsam</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>The Voice of Saruman</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>The Palant√≠r</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>The Taming of Smeagol</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>The Passage of the Marshes</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>The Black Gate is Closed</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>Of Herbs and Stewed Rabbit</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>The Window of the West</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>The Forbidden Pool</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>Journey to the Cross-roads</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>The Stairs to Cirith Ungol</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>Shelob's Lair</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>The Choices of Master Samwise</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>Minas Tirith</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>The Passing of the Grey Company</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>The Muster of Rohan</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>The Siege of Gondor</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>The Ride of Rohirrim</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>The Battle of the Pelennor Fields</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>The Pyre of Denethor</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>The Houses of Healing</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>The Last Debate</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>The Black Gate Opens</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>The Tower of Cirith Ungol</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>The Land of Shadow</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>Mount Doom</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>The Field of Cormallen</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>The Steward and the King</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>Many Partings</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>Homeward Bound</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>Scouring of the Shire</c:v>
-                </c:pt>
-                <c:pt idx="112">
                   <c:v>The Grey Havens</c:v>
                 </c:pt>
               </c:strCache>
@@ -2033,347 +1931,206 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Combined!$B$2:$B$114</c:f>
+              <c:f>Combined!$B$49:$B$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="113"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>1.6666666699999999</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3333333299999999</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8571428600000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6666666700000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.28571429</c:v>
+                  <c:v>2.3333333299999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.1764705900000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6666666700000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.3333333300000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72727273000000003</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4</c:v>
+                  <c:v>0.66666667000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>2.3636363600000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.71428571</c:v>
+                  <c:v>0.89655172000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2</c:v>
+                  <c:v>1.47368421</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.90909090999999997</c:v>
+                  <c:v>0.28571428999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5</c:v>
+                  <c:v>0.22222222</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.24</c:v>
+                  <c:v>0.23529412</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.66666667000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>2.5454545500000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30769231000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.18181818</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.85714285999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.3478260899999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4705882400000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.57142857000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5714285699999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.42857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8823529400000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61538462000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.88888889000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1666666699999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44444444</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.85714285999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.91304348</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>0.66666667000000002</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.14285714</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.84375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.84375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.2666666700000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.44444444</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.57142857000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="49">
+                  <c:v>1.3333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.76190475999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.66666667000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.375</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.33333332999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.28571428999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.61538462000000005</c:v>
-                </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="53">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7777777800000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.6666666700000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.57142857000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="57">
+                  <c:v>0.47058823999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.13333333</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.3333333299999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.1764705900000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.3333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.66666667000000002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.3636363600000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.8</c:v>
-                </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>2.4615384599999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.125</c:v>
+                  <c:v>2.3076923100000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.5</c:v>
+                  <c:v>1.4285714300000001</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.89655172000000005</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.47368421</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.28571428999999998</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.22222222</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.23529412</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.66666667000000002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.5454545500000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.30769231000000002</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.18181818</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.85714285999999995</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.3478260899999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.4705882400000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.57142857000000002</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.5714285699999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.42857142999999998</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.8823529400000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.61538462000000005</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.8333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.3333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.88888889000000004</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.1666666699999999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.44444444</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.85714285999999995</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.91304348</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.66666667000000002</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.3333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.76190475999999996</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.7777777800000001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.47058823999999999</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.13333333</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2.4615384599999999</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2.3076923100000002</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.4285714300000001</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="112">
                   <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -2382,7 +2139,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E40-814B-AC89-8C283544D77D}"/>
+              <c16:uniqueId val="{00000001-C204-4448-AFF8-99CAC8A2053D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2395,11 +2152,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="873242175"/>
-        <c:axId val="898213535"/>
+        <c:axId val="876263199"/>
+        <c:axId val="810480671"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="873242175"/>
+        <c:axId val="876263199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,9 +2170,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2429,9 +2186,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2442,7 +2198,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="898213535"/>
+        <c:crossAx val="810480671"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2450,7 +2206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="898213535"/>
+        <c:axId val="810480671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2460,9 +2216,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2488,9 +2244,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2501,7 +2256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="873242175"/>
+        <c:crossAx val="876263199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2525,17 +2280,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2669,6 +2435,22 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Combined!$A$53:$A$114</c:f>
@@ -3061,7 +2843,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C204-4448-AFF8-99CAC8A2053D}"/>
+              <c16:uniqueId val="{00000001-21DC-9346-AD3D-C50FF4B4E743}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3361,710 +3143,6 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="40000"/>
-                    <a:lumOff val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:strRef>
-              <c:f>Combined!$A$53:$A$114</c:f>
-              <c:strCache>
-                <c:ptCount val="62"/>
-                <c:pt idx="0">
-                  <c:v>A Long-expected Party</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>The Shadow of the Past</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Three is Company</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>A Short Cut to Mushrooms</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>A Conspiracy Unmasked</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>The Old Forest</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>In the House of Tom Bombadil</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Fog on the Barrow-downs</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>At the Sign of the Prancing Pony</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Strider</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>A Knife in the Dark</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Flight to the Ford</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Many Meetings</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>The Council of Elrond</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>The Ring goes South</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>A Journey in the Dark</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>The Bridge of Khazad-d√ªm</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Lothl√≥rien</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>The Mirror of Galadriel</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Farewell to L√≥rien</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>The Great River</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>The Breaking of the Fellowship</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>The Departure of Boromir</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>The Riders of Rohan</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>The Uruk-hai</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Treebeard</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>The White Rider</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>The King of the Golden Hall</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Helm's Deep</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>The Road to Isengard</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Flotsam and Jetsam</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>The Voice of Saruman</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>The Palant√≠r</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>The Taming of Smeagol</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>The Passage of the Marshes</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>The Black Gate is Closed</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Of Herbs and Stewed Rabbit</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>The Window of the West</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>The Forbidden Pool</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Journey to the Cross-roads</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>The Stairs to Cirith Ungol</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Shelob's Lair</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>The Choices of Master Samwise</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Minas Tirith</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>The Passing of the Grey Company</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>The Muster of Rohan</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>The Siege of Gondor</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>The Ride of Rohirrim</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>The Battle of the Pelennor Fields</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>The Pyre of Denethor</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>The Houses of Healing</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>The Last Debate</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>The Black Gate Opens</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>The Tower of Cirith Ungol</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>The Land of Shadow</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Mount Doom</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>The Field of Cormallen</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>The Steward and the King</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>Many Partings</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>Homeward Bound</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>Scouring of the Shire</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>The Grey Havens</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Combined!$B$53:$B$114</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
-                <c:pt idx="0">
-                  <c:v>2.3333333299999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1764705900000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.66666667000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.3636363600000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.89655172000000005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.47368421</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.28571428999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.22222222</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.23529412</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.66666667000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.5454545500000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.30769231000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.18181818</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.85714285999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.3478260899999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.4705882400000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.57142857000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.5714285699999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.42857142999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.8823529400000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.61538462000000005</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.8333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.3333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.88888889000000004</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.1666666699999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.44444444</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.85714285999999995</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.91304348</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.66666667000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.3333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.76190475999999996</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.7777777800000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.47058823999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.13333333</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.4615384599999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.3076923100000002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4285714300000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-21DC-9346-AD3D-C50FF4B4E743}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="876263199"/>
-        <c:axId val="810480671"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="876263199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="810480671"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="810480671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="876263199"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>LOTR Polarity</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (Subsequent)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
               </a:ln>
@@ -4664,6 +3742,1012 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Entire</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Corpus Polarity (Subsequent)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Combined!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Polarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Combined!$A$2:$A$114</c:f>
+              <c:strCache>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>Ainundalë</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Valaquenta</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Of the Beginning of Days</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Of Aulë and Yavanna</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Of the Coming of the Elves and the Captivity of Melkor</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Of Thingol and Melian</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Of Eldamar and the Princes of the Eldali√´</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Of F√´anor and the Unchaining of Melkor</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Of the Silmarils and the Unrest of the Noldor</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Of the Darkening of Valinor</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Of the Flight of the Noldor</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Of the Sindar</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Of the Sun and Moon and the Hiding of Valinor</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Of Men</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Of the Return of the Noldor</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Of Beleriad and its Realms</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Of the Noldor in Beleriad</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Of Maeglin</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Of the Coming of Men into the West</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Of the Ruin of Beleriad and the Fall of Fingolfin</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Of Beren and L√∫thien</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Of the Fifth Battle: Nirnaeth Arnoediad</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Of T√∫rin Turambar</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Of the Ruin of Doriath</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Of Tuor and the Fall of Gondolin</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Of the Voyage of E√§rendil and the War of Wrath</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Akallab√™th: The Downfall of N√∫menor</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Of the Rings of Power and the Third Age</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>An Unexpected Party</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Roast Mutton</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>A Short Rest</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Over Hill and Under Hill</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Riddles In The Dark</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Out Of The Frying-Pan Into The Fire</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Queer Lodgings</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Flies And Spiders</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Barrels Out Of Bond</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>A Warm Welcome</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>On The Doorstep</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Inside Information</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Not At Home</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Fire And Water</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>The Gathering Of The Clouds</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>A Thief In The Night</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>The Clouds Burst</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>The Return Journey</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>The Last Stage</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Concerning Hobbits</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Concerning Pipeweed</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Of the Ordering of the Shire</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Note on the Shire Records</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>A Long-expected Party</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>The Shadow of the Past</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Three is Company</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>A Short Cut to Mushrooms</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>A Conspiracy Unmasked</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>The Old Forest</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>In the House of Tom Bombadil</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Fog on the Barrow-downs</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>At the Sign of the Prancing Pony</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Strider</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>A Knife in the Dark</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Flight to the Ford</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Many Meetings</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>The Council of Elrond</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>The Ring goes South</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>A Journey in the Dark</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>The Bridge of Khazad-d√ªm</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Lothl√≥rien</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>The Mirror of Galadriel</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Farewell to L√≥rien</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>The Great River</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>The Breaking of the Fellowship</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>The Departure of Boromir</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>The Riders of Rohan</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>The Uruk-hai</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Treebeard</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>The White Rider</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>The King of the Golden Hall</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Helm's Deep</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>The Road to Isengard</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Flotsam and Jetsam</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>The Voice of Saruman</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>The Palant√≠r</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>The Taming of Smeagol</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>The Passage of the Marshes</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>The Black Gate is Closed</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Of Herbs and Stewed Rabbit</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>The Window of the West</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>The Forbidden Pool</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Journey to the Cross-roads</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>The Stairs to Cirith Ungol</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Shelob's Lair</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>The Choices of Master Samwise</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Minas Tirith</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>The Passing of the Grey Company</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>The Muster of Rohan</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>The Siege of Gondor</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>The Ride of Rohirrim</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>The Battle of the Pelennor Fields</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>The Pyre of Denethor</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>The Houses of Healing</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>The Last Debate</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>The Black Gate Opens</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>The Tower of Cirith Ungol</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>The Land of Shadow</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>Mount Doom</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>The Field of Cormallen</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>The Steward and the King</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>Many Partings</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>Homeward Bound</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>Scouring of the Shire</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>The Grey Havens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Combined!$B$2:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>1.6666666699999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3333333299999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8571428600000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6666666700000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.28571429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6666666700000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72727273000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.71428571</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.90909090999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.14285714</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.84375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.84375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2666666700000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.44444444</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.57142857000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.33333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.28571428999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.61538462000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.6666666700000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.57142857000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.3333333299999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1764705900000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.66666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.3636363600000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.89655172000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.47368421</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.28571428999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.22222222</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.23529412</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.66666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5454545500000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.30769231000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.18181818</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.85714285999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.3478260899999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.4705882400000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.57142857000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5714285699999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.42857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8823529400000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.61538462000000005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.88888889000000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.1666666699999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.44444444</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.85714285999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.91304348</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.66666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.3333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.76190475999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7777777800000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.47058823999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.13333333</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.4615384599999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.3076923100000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.4285714300000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BBFD-3248-A60B-A088BA5F9956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="879047343"/>
+        <c:axId val="879212015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="879047343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879212015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="879212015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="879047343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5900,35 +5984,33 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5936,26 +6018,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -5964,9 +6054,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5985,14 +6074,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -6001,45 +6082,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6051,31 +6122,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -6093,21 +6162,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6117,20 +6183,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6144,14 +6210,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6165,9 +6231,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6181,12 +6246,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -6198,9 +6257,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6215,108 +6274,115 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6328,12 +6394,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6349,7 +6422,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6358,9 +6430,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6370,7 +6441,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6378,9 +6449,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6391,9 +6462,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6405,12 +6475,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7989,42 +8053,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>527539</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81E113B-588C-F94B-8130-EEFB0BAE1D3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>18955</xdr:colOff>
       <xdr:row>41</xdr:row>
@@ -8055,7 +8083,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8093,7 +8121,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8131,6 +8159,42 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1B7053-C44F-0D45-8D39-6BF1175583E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
@@ -8144,12 +8208,62 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.25056</cdr:x>
+      <cdr:x>0.78619</cdr:x>
+      <cdr:y>0.67058</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.80083</cdr:x>
+      <cdr:y>0.72207</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CFD99E-BB57-9749-ABEE-5AD2347AC4FC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="12298782" y="3293434"/>
+          <a:ext cx="229014" cy="252880"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.20887</cdr:x>
       <cdr:y>0.15046</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.28372</cdr:x>
-      <cdr:y>0.72384</cdr:y>
+      <cdr:x>0.24292</cdr:x>
+      <cdr:y>0.7233</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -8164,8 +8278,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000" flipH="1" flipV="1">
-          <a:off x="2800033" y="1882263"/>
-          <a:ext cx="2811222" cy="522078"/>
+          <a:off x="2121338" y="1890848"/>
+          <a:ext cx="2828755" cy="533038"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="curvedConnector3">
           <a:avLst/>
@@ -8194,12 +8308,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.25666</cdr:x>
-      <cdr:y>0.1072</cdr:y>
+      <cdr:x>0.21692</cdr:x>
+      <cdr:y>0.09678</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.35413</cdr:x>
-      <cdr:y>0.22059</cdr:y>
+      <cdr:x>0.31438</cdr:x>
+      <cdr:y>0.21017</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8214,8 +8328,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4013200" y="528320"/>
-          <a:ext cx="1524000" cy="558800"/>
+          <a:off x="3419698" y="471711"/>
+          <a:ext cx="1536543" cy="552656"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8251,12 +8365,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.42256</cdr:x>
-      <cdr:y>0.16086</cdr:y>
+      <cdr:x>0.38999</cdr:x>
+      <cdr:y>0.15739</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.45402</cdr:x>
-      <cdr:y>0.71852</cdr:y>
+      <cdr:x>0.42072</cdr:x>
+      <cdr:y>0.72521</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -8271,8 +8385,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000" flipH="1" flipV="1">
-          <a:off x="5522040" y="1885689"/>
-          <a:ext cx="2704576" cy="493485"/>
+          <a:off x="4942562" y="1938637"/>
+          <a:ext cx="2803984" cy="481085"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="curvedConnector3">
           <a:avLst/>
@@ -8301,12 +8415,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.41904</cdr:x>
-      <cdr:y>0.11749</cdr:y>
+      <cdr:x>0.38789</cdr:x>
+      <cdr:y>0.10011</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.5165</cdr:x>
-      <cdr:y>0.23087</cdr:y>
+      <cdr:x>0.48535</cdr:x>
+      <cdr:y>0.2135</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8321,8 +8435,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6553671" y="568208"/>
-          <a:ext cx="1524348" cy="548389"/>
+          <a:off x="6115035" y="487962"/>
+          <a:ext cx="1536542" cy="552656"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8417,12 +8531,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.73765</cdr:x>
-      <cdr:y>0.16302</cdr:y>
+      <cdr:x>0.72835</cdr:x>
+      <cdr:y>0.16021</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.79656</cdr:x>
-      <cdr:y>0.70773</cdr:y>
+      <cdr:x>0.78596</cdr:x>
+      <cdr:y>0.6697</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -8437,8 +8551,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000" flipV="1">
-          <a:off x="10694988" y="1674812"/>
-          <a:ext cx="2673350" cy="923925"/>
+          <a:off x="10688742" y="1544742"/>
+          <a:ext cx="2453274" cy="906632"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="curvedConnector3">
           <a:avLst/>
@@ -8580,56 +8694,6 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.78219</cdr:x>
-      <cdr:y>0.70643</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.81134</cdr:x>
-      <cdr:y>0.70643</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="22" name="Straight Connector 21">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98846742-BB1C-CD46-A000-880F5468DC1B}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="12268200" y="3467100"/>
-          <a:ext cx="457200" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
       <cdr:x>0.69526</cdr:x>
       <cdr:y>0.1072</cdr:y>
     </cdr:from>
@@ -8688,12 +8752,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.88287</cdr:x>
-      <cdr:y>0.17751</cdr:y>
+      <cdr:x>0.87642</cdr:x>
+      <cdr:y>0.17404</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.89734</cdr:x>
-      <cdr:y>0.72206</cdr:y>
+      <cdr:x>0.89181</cdr:x>
+      <cdr:y>0.72637</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -8708,8 +8772,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000" flipV="1">
-          <a:off x="12613978" y="2100226"/>
-          <a:ext cx="2679984" cy="226794"/>
+          <a:off x="12474396" y="2102729"/>
+          <a:ext cx="2727466" cy="240860"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="curvedConnector3">
           <a:avLst>
@@ -8832,6 +8896,1262 @@
               <a:schemeClr val="bg1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.77159</cdr:x>
+      <cdr:y>0.66943</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.78618</cdr:x>
+      <cdr:y>0.72097</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="38" name="Straight Connector 37">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CE126F-C405-7749-9EBE-C26FDA838F4B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="12070381" y="3287797"/>
+          <a:ext cx="228384" cy="253136"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78599</cdr:x>
+      <cdr:y>0.6696</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.78603</cdr:x>
+      <cdr:y>0.72097</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CFD99E-BB57-9749-ABEE-5AD2347AC4FC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="12295653" y="3288616"/>
+          <a:ext cx="745" cy="252317"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.80326</cdr:x>
+      <cdr:y>0.26862</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8464</cdr:x>
+      <cdr:y>0.7213</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="47" name="Straight Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EB8D94-9DD2-ED44-BB31-C61C4CA3722A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000" flipV="1">
+          <a:off x="11884884" y="2105884"/>
+          <a:ext cx="2237011" cy="680155"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.74991</cdr:x>
+      <cdr:y>0.21125</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89221</cdr:x>
+      <cdr:y>0.29655</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="51" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BDEC8D-7FDE-B24C-A3F9-EC3447CEBABF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="11792470" y="1016755"/>
+          <a:ext cx="2237721" cy="410587"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Frodo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> believed to be dead</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.20651</cdr:x>
+      <cdr:y>0.71247</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.21126</cdr:x>
+      <cdr:y>0.72753</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="61" name="Oval 60">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03716278-02E9-9145-9ED1-737CA1199213}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3243642" y="3509016"/>
+          <a:ext cx="74633" cy="74174"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88998</cdr:x>
+      <cdr:y>0.71529</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8947</cdr:x>
+      <cdr:y>0.73073</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="62" name="Oval 61">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99100D51-AD87-5441-9128-0FABECECEF2D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="13979086" y="3522880"/>
+          <a:ext cx="74229" cy="76068"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.38774</cdr:x>
+      <cdr:y>0.71558</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39248</cdr:x>
+      <cdr:y>0.73059</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="66" name="Oval 65">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99100D51-AD87-5441-9128-0FABECECEF2D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6090293" y="3524340"/>
+          <a:ext cx="74497" cy="73904"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7978</cdr:x>
+      <cdr:y>0.71618</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.80253</cdr:x>
+      <cdr:y>0.73163</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="67" name="Oval 66">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E103A713-9FC3-F643-BBD7-C644CB5842FA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="12531290" y="3527288"/>
+          <a:ext cx="74229" cy="76067"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7688</cdr:x>
+      <cdr:y>0.71613</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.77353</cdr:x>
+      <cdr:y>0.73158</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="68" name="Oval 67">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E103A713-9FC3-F643-BBD7-C644CB5842FA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="12075761" y="3527049"/>
+          <a:ext cx="74230" cy="76067"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84425</cdr:x>
+      <cdr:y>0.71519</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.84898</cdr:x>
+      <cdr:y>0.73064</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="69" name="Oval 68">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E103A713-9FC3-F643-BBD7-C644CB5842FA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="13260914" y="3522416"/>
+          <a:ext cx="74229" cy="76069"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.78357</cdr:x>
+      <cdr:y>0.71616</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7883</cdr:x>
+      <cdr:y>0.7316</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="70" name="Oval 69">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E103A713-9FC3-F643-BBD7-C644CB5842FA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="12307806" y="3527167"/>
+          <a:ext cx="74229" cy="76069"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -10797,10 +12117,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87887A3-7736-3742-B909-B4291ED78001}">
-  <dimension ref="A1:Y114"/>
+  <dimension ref="A1:Y126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F74" zoomScale="68" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="X96" sqref="X96"/>
+    <sheetView tabSelected="1" topLeftCell="C94" zoomScale="106" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11706,7 +13026,7 @@
         <v>1.4285714300000001</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16">
+    <row r="113" spans="1:6" ht="16">
       <c r="A113" s="2" t="s">
         <v>116</v>
       </c>
@@ -11714,12 +13034,17 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="16">
+    <row r="114" spans="1:6" ht="16">
       <c r="A114" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B114" s="2">
         <v>2.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="F126" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/LOTR.xlsx
+++ b/LOTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blaz/Desktop/LOTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2100AA-EAB6-FB49-B216-098EEDC5408C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DFF173-9196-3544-BD9D-83AE5EB2A54E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="620" windowWidth="22500" windowHeight="15360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="620" windowWidth="22500" windowHeight="15360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="The Silmarillion" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,25 @@
     <sheet name="LOTR" sheetId="2" r:id="rId6"/>
     <sheet name="Combined" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.10" hidden="1">'The Silmarillion'!$A$2:$A$29</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'The Silmarillion'!$B$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'The Silmarillion'!$B$2:$B$29</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'The Silmarillion'!$A$2:$A$29</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'The Silmarillion'!$B$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'The Silmarillion'!$B$2:$B$29</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'The Silmarillion'!$A$2:$A$29</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'The Silmarillion'!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'The Silmarillion'!$B$2:$B$29</definedName>
+    <definedName name="_xlchart.v5.0" hidden="1">'The Silmarillion'!$A$1</definedName>
+    <definedName name="_xlchart.v5.1" hidden="1">'The Silmarillion'!$A$2:$A$29</definedName>
+    <definedName name="_xlchart.v5.13" hidden="1">'The Silmarillion'!$A$1</definedName>
+    <definedName name="_xlchart.v5.14" hidden="1">'The Silmarillion'!$A$2:$A$29</definedName>
+    <definedName name="_xlchart.v5.15" hidden="1">'The Silmarillion'!$B$1</definedName>
+    <definedName name="_xlchart.v5.16" hidden="1">'The Silmarillion'!$B$2:$B$29</definedName>
+    <definedName name="_xlchart.v5.2" hidden="1">'The Silmarillion'!$B$1</definedName>
+    <definedName name="_xlchart.v5.3" hidden="1">'The Silmarillion'!$B$2:$B$29</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -431,7 +450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +547,493 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Silmarillion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> polarity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'The Silmarillion'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Polarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'The Silmarillion'!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>Ainundalë</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Valaquenta</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Of the Beginning of Days</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Of Aulë and Yavanna</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Of the Coming of the Elves and the Captivity of Melkor</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Of Thingol and Melian</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Of Eldamar and the Princes of the Eldalië</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Of Fëanor and the Unchaining of Melkor</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Of the Silmarils and the Unrest of the Noldor</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Of the Darkening of Valinor</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Of the Flight of the Noldor</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Of the Sindar</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Of the Sun and Moon and the Hiding of Valinor</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Of Men</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Of the Return of the Noldor</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Of Beleriad and its Realms</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Of the Noldor in Beleriad</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Of Maeglin</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Of the Coming of Men into the West</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Of the Ruin of Beleriad and the Fall of Fingolfin</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Of Beren and Lúthien</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Of the Fifth Battle: Nirnaeth Arnoediad</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Of Túrin Turambar</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Of the Ruin of Doriath</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Of Tuor and the Fall of Gondolin</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Of the Voyage of Eärendil and the War of Wrath</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Akallabêth: The Downfall of Númenor</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Of the Rings of Power and the Third Age</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'The Silmarillion'!$B$2:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.84375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.84375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF11-8547-9049-7EB621E2B157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1912749088"/>
+        <c:axId val="1912750768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1912749088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1912750768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1912750768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1912749088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Entire</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Corpus Polarity (Subsequent)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -574,7 +1080,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'The Silmarillion'!$B$1</c:f>
+              <c:f>Combined!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -603,9 +1109,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'The Silmarillion'!$A$2:$A$29</c:f>
+              <c:f>Combined!$A$2:$A$114</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="113"/>
                 <c:pt idx="0">
                   <c:v>Ainundalë</c:v>
                 </c:pt>
@@ -625,10 +1131,10 @@
                   <c:v>Of Thingol and Melian</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Of Eldamar and the Princes of the Eldalië</c:v>
+                  <c:v>Of Eldamar and the Princes of the Eldali√´</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Of Fëanor and the Unchaining of Melkor</c:v>
+                  <c:v>Of F√´anor and the Unchaining of Melkor</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Of the Silmarils and the Unrest of the Noldor</c:v>
@@ -667,13 +1173,13 @@
                   <c:v>Of the Ruin of Beleriad and the Fall of Fingolfin</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Of Beren and Lúthien</c:v>
+                  <c:v>Of Beren and L√∫thien</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Of the Fifth Battle: Nirnaeth Arnoediad</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Of Túrin Turambar</c:v>
+                  <c:v>Of T√∫rin Turambar</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>Of the Ruin of Doriath</c:v>
@@ -682,37 +1188,292 @@
                   <c:v>Of Tuor and the Fall of Gondolin</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Of the Voyage of Eärendil and the War of Wrath</c:v>
+                  <c:v>Of the Voyage of E√§rendil and the War of Wrath</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Akallabêth: The Downfall of Númenor</c:v>
+                  <c:v>Akallab√™th: The Downfall of N√∫menor</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>Of the Rings of Power and the Third Age</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>An Unexpected Party</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Roast Mutton</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>A Short Rest</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Over Hill and Under Hill</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Riddles In The Dark</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Out Of The Frying-Pan Into The Fire</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Queer Lodgings</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Flies And Spiders</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Barrels Out Of Bond</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>A Warm Welcome</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>On The Doorstep</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Inside Information</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Not At Home</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Fire And Water</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>The Gathering Of The Clouds</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>A Thief In The Night</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>The Clouds Burst</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>The Return Journey</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>The Last Stage</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Concerning Hobbits</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Concerning Pipeweed</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Of the Ordering of the Shire</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Note on the Shire Records</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>A Long-expected Party</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>The Shadow of the Past</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Three is Company</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>A Short Cut to Mushrooms</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>A Conspiracy Unmasked</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>The Old Forest</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>In the House of Tom Bombadil</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Fog on the Barrow-downs</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>At the Sign of the Prancing Pony</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Strider</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>A Knife in the Dark</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Flight to the Ford</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Many Meetings</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>The Council of Elrond</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>The Ring goes South</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>A Journey in the Dark</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>The Bridge of Khazad-d√ªm</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Lothl√≥rien</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>The Mirror of Galadriel</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Farewell to L√≥rien</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>The Great River</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>The Breaking of the Fellowship</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>The Departure of Boromir</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>The Riders of Rohan</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>The Uruk-hai</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Treebeard</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>The White Rider</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>The King of the Golden Hall</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Helm's Deep</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>The Road to Isengard</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Flotsam and Jetsam</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>The Voice of Saruman</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>The Palant√≠r</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>The Taming of Smeagol</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>The Passage of the Marshes</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>The Black Gate is Closed</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Of Herbs and Stewed Rabbit</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>The Window of the West</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>The Forbidden Pool</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Journey to the Cross-roads</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>The Stairs to Cirith Ungol</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Shelob's Lair</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>The Choices of Master Samwise</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Minas Tirith</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>The Passing of the Grey Company</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>The Muster of Rohan</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>The Siege of Gondor</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>The Ride of Rohirrim</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>The Battle of the Pelennor Fields</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>The Pyre of Denethor</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>The Houses of Healing</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>The Last Debate</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>The Black Gate Opens</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>The Tower of Cirith Ungol</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>The Land of Shadow</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>Mount Doom</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>The Field of Cormallen</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>The Steward and the King</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>Many Partings</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>Homeward Bound</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>Scouring of the Shire</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>The Grey Havens</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'The Silmarillion'!$B$2:$B$29</c:f>
+              <c:f>Combined!$B$2:$B$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="113"/>
                 <c:pt idx="0">
-                  <c:v>1.666666666666667</c:v>
+                  <c:v>1.6666666699999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.333333333333333</c:v>
+                  <c:v>3.3333333299999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8571428571428572</c:v>
+                  <c:v>2.8571428600000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.666666666666667</c:v>
+                  <c:v>2.6666666700000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.285714285714286</c:v>
+                  <c:v>2.28571429</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4</c:v>
@@ -721,16 +1482,16 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.666666666666667</c:v>
+                  <c:v>2.6666666700000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.333333333333333</c:v>
+                  <c:v>1.3333333300000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72727272727272729</c:v>
+                  <c:v>0.72727273000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.4</c:v>
@@ -751,13 +1512,13 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.714285714285714</c:v>
+                  <c:v>1.71428571</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.90909090909090906</c:v>
+                  <c:v>0.90909090999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.5</c:v>
@@ -766,22 +1527,277 @@
                   <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.66666667000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.66666667000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.142857142857143</c:v>
+                  <c:v>1.14285714</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>1.84375</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.84375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2666666700000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.44444444</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.57142857000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.33333332999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.28571428999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.61538462000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.6666666700000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.57142857000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.3333333299999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.1764705900000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.66666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.3636363600000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.89655172000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.47368421</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.28571428999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.22222222</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.23529412</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.66666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5454545500000001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.30769231000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.18181818</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.85714285999999995</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.3478260899999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.4705882400000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.57142857000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5714285699999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.42857142999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8823529400000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.61538462000000005</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.88888889000000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.1666666699999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.44444444</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.85714285999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.91304348</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.66666667000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.3333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.76190475999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7777777800000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.47058823999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.13333333</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.4615384599999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.3076923100000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.4285714300000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,7 +1805,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3DEE-B14A-8B68-2BF6C7456799}"/>
+              <c16:uniqueId val="{00000000-BBFD-3248-A60B-A088BA5F9956}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -802,11 +1818,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="874199295"/>
-        <c:axId val="874473103"/>
+        <c:axId val="879047343"/>
+        <c:axId val="879212015"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="874199295"/>
+        <c:axId val="879047343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +1864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="874473103"/>
+        <c:crossAx val="879212015"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -856,7 +1872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="874473103"/>
+        <c:axId val="879212015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +1922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="874199295"/>
+        <c:crossAx val="879047343"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -974,6 +1990,1648 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hobbit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> polarity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'The Hobbit'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Polarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'The Hobbit'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>An Unexpected Party</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Roast Mutton</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A Short Rest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Over Hill and Under Hill</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Riddles In The Dark</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Out Of The Frying-Pan Into The Fire</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Queer Lodgings</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Flies And Spiders</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Barrels Out Of Bond</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>A Warm Welcome</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>On The Doorstep</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Inside Information</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Not At Home</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Fire And Water</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Gathering Of The Clouds</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>A Thief In The Night</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Clouds Burst</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Return Journey</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Last Stage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'The Hobbit'!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.2666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-90BB-644D-A0BF-4D145BD0CB73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1912749088"/>
+        <c:axId val="1912750768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1912749088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1912750768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1912750768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1912749088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fellowship</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> polarity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fellowship of the Rings'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Polarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Fellowship of the Rings'!$A$2:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Concerning Hobbits</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Concerning Pipeweed</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Of the Ordering of the Shire</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Note on the Shire Records</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>A Long-expected Party</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Shadow of the Past</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Three is Company</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A Short Cut to Mushrooms</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>A Conspiracy Unmasked</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Old Forest</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>In the House of Tom Bombadil</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Fog on the Barrow-downs</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>At the Sign of the Prancing Pony</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Strider</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>A Knife in the Dark</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Flight to the Ford</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Many Meetings</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>The Council of Elrond</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Ring goes South</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>A Journey in the Dark</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>The Bridge of Khazad-dûm</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Lothlórien</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>The Mirror of Galadriel</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Farewell to Lórien</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>The Great River</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>The Breaking of the Fellowship</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fellowship of the Rings'!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1764705882352939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3636363636363642</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89655172413793105</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4736842105263159</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23529411764705879</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1818181818181818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C1A-FA47-AE02-95E040340FFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1912749088"/>
+        <c:axId val="1912750768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1912749088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1912750768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1912750768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1912749088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TWO TOWERS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> polarity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'The Two Towers'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Polarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'The Two Towers'!$A$2:$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>The Departure of Boromir</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>The Riders of Rohan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>The Uruk-hai</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Treebeard</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>The White Rider</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The King of the Golden Hall</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Helm's Deep</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>The Road to Isengard</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flotsam and Jetsam</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Voice of Saruman</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Palantír</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Taming of Smeagol</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>The Passage of the Marshes</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>The Black Gate is Closed</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Of Herbs and Stewed Rabbit</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>The Window of the West</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>The Forbidden Pool</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Journey to the Cross-roads</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Stairs to Cirith Ungol</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Shelob's Lair</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>The Choices of Master Samwise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'The Two Towers'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.347826086956522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4705882352941182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42857142857142849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-87AE-674A-AE59-1E038AF50095}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1912749088"/>
+        <c:axId val="1912750768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1912749088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1912750768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1912750768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1912749088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>return</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> polarity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'The Return of the King'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Polarity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>'The Return of the King'!$A$2:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>Minas Tirith</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>The Passing of the Grey Company</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>The Muster of Rohan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The Siege of Gondor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>The Ride of Rohirrim</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Battle of the Pelennor Fields</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>The Pyre of Denethor</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>The Houses of Healing</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>The Last Debate</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Black Gate Opens</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Tower of Cirith Ungol</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Land of Shadow</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Mount Doom</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>The Field of Cormallen</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>The Steward and the King</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Many Partings</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Homeward Bound</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Scouring of the Shire</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>The Grey Havens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'The Return of the King'!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.9130434782608701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76190476190476186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47058823529411759</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4615384615384621</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.307692307692307</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-993F-B147-9FF4-6C381E327F5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1912749088"/>
+        <c:axId val="1912750768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1912749088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1912750768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1912750768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1912749088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1611,7 +4269,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2323,7 +4981,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3027,7 +5685,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3745,1013 +6403,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Entire</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Corpus Polarity (Subsequent)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Combined!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Polarity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Combined!$A$2:$A$114</c:f>
-              <c:strCache>
-                <c:ptCount val="113"/>
-                <c:pt idx="0">
-                  <c:v>Ainundalë</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Valaquenta</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Of the Beginning of Days</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Of Aulë and Yavanna</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Of the Coming of the Elves and the Captivity of Melkor</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Of Thingol and Melian</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Of Eldamar and the Princes of the Eldali√´</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Of F√´anor and the Unchaining of Melkor</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Of the Silmarils and the Unrest of the Noldor</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Of the Darkening of Valinor</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Of the Flight of the Noldor</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Of the Sindar</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Of the Sun and Moon and the Hiding of Valinor</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Of Men</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Of the Return of the Noldor</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Of Beleriad and its Realms</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Of the Noldor in Beleriad</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Of Maeglin</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Of the Coming of Men into the West</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Of the Ruin of Beleriad and the Fall of Fingolfin</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Of Beren and L√∫thien</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Of the Fifth Battle: Nirnaeth Arnoediad</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Of T√∫rin Turambar</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Of the Ruin of Doriath</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Of Tuor and the Fall of Gondolin</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Of the Voyage of E√§rendil and the War of Wrath</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Akallab√™th: The Downfall of N√∫menor</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Of the Rings of Power and the Third Age</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>An Unexpected Party</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Roast Mutton</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>A Short Rest</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Over Hill and Under Hill</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Riddles In The Dark</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Out Of The Frying-Pan Into The Fire</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Queer Lodgings</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Flies And Spiders</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Barrels Out Of Bond</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>A Warm Welcome</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>On The Doorstep</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Inside Information</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Not At Home</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Fire And Water</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>The Gathering Of The Clouds</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>A Thief In The Night</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>The Clouds Burst</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>The Return Journey</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>The Last Stage</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>Concerning Hobbits</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>Concerning Pipeweed</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>Of the Ordering of the Shire</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>Note on the Shire Records</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>A Long-expected Party</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>The Shadow of the Past</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>Three is Company</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>A Short Cut to Mushrooms</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>A Conspiracy Unmasked</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>The Old Forest</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>In the House of Tom Bombadil</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>Fog on the Barrow-downs</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>At the Sign of the Prancing Pony</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>Strider</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>A Knife in the Dark</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>Flight to the Ford</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>Many Meetings</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>The Council of Elrond</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>The Ring goes South</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>A Journey in the Dark</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>The Bridge of Khazad-d√ªm</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>Lothl√≥rien</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>The Mirror of Galadriel</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>Farewell to L√≥rien</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>The Great River</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>The Breaking of the Fellowship</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>The Departure of Boromir</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>The Riders of Rohan</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>The Uruk-hai</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>Treebeard</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>The White Rider</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>The King of the Golden Hall</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>Helm's Deep</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>The Road to Isengard</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>Flotsam and Jetsam</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>The Voice of Saruman</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>The Palant√≠r</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>The Taming of Smeagol</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>The Passage of the Marshes</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>The Black Gate is Closed</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>Of Herbs and Stewed Rabbit</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>The Window of the West</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>The Forbidden Pool</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>Journey to the Cross-roads</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>The Stairs to Cirith Ungol</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>Shelob's Lair</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>The Choices of Master Samwise</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>Minas Tirith</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>The Passing of the Grey Company</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>The Muster of Rohan</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>The Siege of Gondor</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>The Ride of Rohirrim</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>The Battle of the Pelennor Fields</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>The Pyre of Denethor</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>The Houses of Healing</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>The Last Debate</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>The Black Gate Opens</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>The Tower of Cirith Ungol</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>The Land of Shadow</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>Mount Doom</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>The Field of Cormallen</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>The Steward and the King</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>Many Partings</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>Homeward Bound</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>Scouring of the Shire</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>The Grey Havens</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Combined!$B$2:$B$114</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="113"/>
-                <c:pt idx="0">
-                  <c:v>1.6666666699999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3333333299999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8571428600000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6666666700000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.28571429</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6666666700000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.72727273000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.71428571</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.90909090999999997</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.66666667000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.66666667000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.14285714</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.84375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.84375</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.2666666700000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.44444444</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.57142857000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.66666667000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.375</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.33333332999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.28571428999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.61538462000000005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.6666666700000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.57142857000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.3333333299999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.1764705900000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.3333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.66666667000000002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.3636363600000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.89655172000000005</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.47368421</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.28571428999999998</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.22222222</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.23529412</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.66666667000000002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.5454545500000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.30769231000000002</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.18181818</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.85714285999999995</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.3478260899999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.4705882400000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.57142857000000002</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.5714285699999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.42857142999999998</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.8823529400000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.61538462000000005</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.8333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.3333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.88888889000000004</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.1666666699999999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.44444444</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.85714285999999995</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.91304348</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.66666667000000002</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.3333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.76190475999999996</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.7777777800000001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.47058823999999999</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.13333333</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2.4615384599999999</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2.3076923100000002</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.4285714300000001</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2.25</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BBFD-3248-A60B-A088BA5F9956}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="879047343"/>
-        <c:axId val="879212015"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="879047343"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="879212015"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="879212015"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="879047343"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4991,7 +6683,656 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5488,6 +7829,2122 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="229">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5983,7 +10440,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6479,7 +10936,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6975,7 +11432,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7471,523 +11928,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CC40A2F-9C43-7F48-AAB5-5C8EE8EB5136}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13EB0425-6FA7-CB4E-A708-BE42909F01E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8009,6 +11970,178 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA669E7-7180-F340-8478-0FEFB08CA362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>503619</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>21895</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D54FB0B-3CB2-4A4D-A5FA-EA85464D32EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73BA0770-30C1-8D4A-A348-A22FFCB2FFE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{441619B9-A8F8-B149-817A-D44EA321C993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8049,7 +12182,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8204,7 +12337,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -10482,17 +14615,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -10500,7 +14633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -10508,7 +14641,7 @@
         <v>1.666666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -10516,7 +14649,7 @@
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -10524,7 +14657,7 @@
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -10532,7 +14665,7 @@
         <v>2.666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -10540,7 +14673,7 @@
         <v>2.285714285714286</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -10548,7 +14681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -10556,7 +14689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -10564,7 +14697,7 @@
         <v>2.666666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -10572,7 +14705,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -10580,7 +14713,7 @@
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -10588,7 +14721,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -10596,7 +14729,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -10604,7 +14737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -10612,7 +14745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -10620,7 +14753,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -10628,7 +14761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -10636,7 +14769,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -10644,7 +14777,7 @@
         <v>1.714285714285714</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -10652,7 +14785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -10660,7 +14793,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -10668,7 +14801,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -10676,7 +14809,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -10684,7 +14817,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -10692,7 +14825,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -10700,7 +14833,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -10708,7 +14841,7 @@
         <v>1.142857142857143</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -10716,7 +14849,7 @@
         <v>1.84375</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -10735,18 +14868,18 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -10754,7 +14887,7 @@
         <v>2.2666666666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -10762,7 +14895,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -10770,7 +14903,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -10778,7 +14911,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -10786,7 +14919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -10794,7 +14927,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -10802,7 +14935,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -10810,7 +14943,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -10818,7 +14951,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -10826,7 +14959,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -10834,7 +14967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -10842,7 +14975,7 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -10850,7 +14983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -10858,7 +14991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -10866,7 +14999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -10874,7 +15007,7 @@
         <v>2.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -10882,7 +15015,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -10890,7 +15023,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -10900,6 +15033,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10907,17 +15041,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A2" zoomScale="67" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -10925,7 +15059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -10933,7 +15067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -10941,7 +15075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -10949,7 +15083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -10957,7 +15091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -10965,7 +15099,7 @@
         <v>2.333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -10973,7 +15107,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -10981,7 +15115,7 @@
         <v>1.1764705882352939</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -10989,7 +15123,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -10997,7 +15131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -11005,7 +15139,7 @@
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -11013,7 +15147,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -11021,7 +15155,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -11029,7 +15163,7 @@
         <v>2.3636363636363642</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -11037,7 +15171,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
@@ -11045,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -11053,7 +15187,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -11061,7 +15195,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -11069,7 +15203,7 @@
         <v>0.89655172413793105</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
@@ -11077,7 +15211,7 @@
         <v>1.4736842105263159</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -11085,7 +15219,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
@@ -11093,7 +15227,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -11101,7 +15235,7 @@
         <v>0.23529411764705879</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -11109,7 +15243,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -11117,7 +15251,7 @@
         <v>2.545454545454545</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -11125,7 +15259,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -11135,6 +15269,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11142,13 +15277,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+    <sheetView topLeftCell="B1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -11156,7 +15291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -11164,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -11172,7 +15307,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -11180,7 +15315,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -11188,7 +15323,7 @@
         <v>2.347826086956522</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -11196,7 +15331,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -11204,7 +15339,7 @@
         <v>2.4705882352941182</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -11212,7 +15347,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
@@ -11220,7 +15355,7 @@
         <v>1.571428571428571</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -11228,7 +15363,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
@@ -11236,7 +15371,7 @@
         <v>1.882352941176471</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -11244,7 +15379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>88</v>
       </c>
@@ -11252,7 +15387,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
@@ -11260,7 +15395,7 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
@@ -11268,7 +15403,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
@@ -11276,7 +15411,7 @@
         <v>1.833333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
@@ -11284,7 +15419,7 @@
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -11292,7 +15427,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -11300,7 +15435,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -11308,7 +15443,7 @@
         <v>1.166666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
@@ -11316,7 +15451,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -11326,6 +15461,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11333,17 +15469,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -11351,7 +15487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -11359,7 +15495,7 @@
         <v>1.9130434782608701</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -11367,7 +15503,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
@@ -11375,7 +15511,7 @@
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -11383,7 +15519,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
@@ -11391,7 +15527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
@@ -11399,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -11407,7 +15543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
@@ -11415,7 +15551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>107</v>
       </c>
@@ -11423,7 +15559,7 @@
         <v>1.7777777777777779</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>108</v>
       </c>
@@ -11431,7 +15567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
@@ -11439,7 +15575,7 @@
         <v>0.47058823529411759</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -11447,7 +15583,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>111</v>
       </c>
@@ -11455,7 +15591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
@@ -11463,7 +15599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -11471,7 +15607,7 @@
         <v>2.4615384615384621</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -11479,7 +15615,7 @@
         <v>2.307692307692307</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
@@ -11487,7 +15623,7 @@
         <v>1.428571428571429</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -11495,7 +15631,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>117</v>
       </c>
@@ -11505,6 +15641,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11516,7 +15653,7 @@
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -11529,7 +15666,7 @@
     <col min="14" max="14" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -11547,7 +15684,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -11573,7 +15710,7 @@
         <v>1.9130434782608701</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -11599,7 +15736,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -11625,7 +15762,7 @@
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -11651,7 +15788,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -11677,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -11703,7 +15840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -11729,7 +15866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -11755,7 +15892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -11781,7 +15918,7 @@
         <v>1.7777777777777779</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -11807,7 +15944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -11833,7 +15970,7 @@
         <v>0.47058823529411759</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -11859,7 +15996,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -11885,7 +16022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -11911,7 +16048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -11937,7 +16074,7 @@
         <v>2.4615384615384621</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -11963,7 +16100,7 @@
         <v>2.307692307692307</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -11989,7 +16126,7 @@
         <v>1.428571428571429</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -12015,7 +16152,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -12041,7 +16178,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
         <v>69</v>
       </c>
@@ -12055,7 +16192,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E22" s="1" t="s">
         <v>70</v>
       </c>
@@ -12069,7 +16206,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E23" s="1" t="s">
         <v>71</v>
       </c>
@@ -12077,7 +16214,7 @@
         <v>0.23529411764705879</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E24" s="1" t="s">
         <v>72</v>
       </c>
@@ -12085,7 +16222,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E25" s="1" t="s">
         <v>73</v>
       </c>
@@ -12093,7 +16230,7 @@
         <v>2.545454545454545</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E26" s="1" t="s">
         <v>74</v>
       </c>
@@ -12101,7 +16238,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E27" s="1" t="s">
         <v>75</v>
       </c>
@@ -12119,23 +16256,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87887A3-7736-3742-B909-B4291ED78001}">
   <dimension ref="A1:Y126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C94" zoomScale="106" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="C94" zoomScale="106" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -12143,7 +16280,7 @@
         <v>1.6666666699999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -12151,7 +16288,7 @@
         <v>3.3333333299999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -12159,7 +16296,7 @@
         <v>2.8571428600000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -12167,7 +16304,7 @@
         <v>2.6666666700000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -12175,7 +16312,7 @@
         <v>2.28571429</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -12183,7 +16320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>121</v>
       </c>
@@ -12191,7 +16328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>122</v>
       </c>
@@ -12199,7 +16336,7 @@
         <v>2.6666666700000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -12207,7 +16344,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -12215,7 +16352,7 @@
         <v>1.3333333300000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -12223,7 +16360,7 @@
         <v>0.72727273000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -12231,7 +16368,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -12239,7 +16376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -12247,7 +16384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -12255,7 +16392,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -12263,7 +16400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -12271,7 +16408,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -12279,7 +16416,7 @@
         <v>1.71428571</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -12287,7 +16424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -12295,7 +16432,7 @@
         <v>0.90909090999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>123</v>
       </c>
@@ -12303,7 +16440,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -12311,7 +16448,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>124</v>
       </c>
@@ -12319,7 +16456,7 @@
         <v>0.66666667000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -12327,7 +16464,7 @@
         <v>0.66666667000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -12335,7 +16472,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>125</v>
       </c>
@@ -12343,7 +16480,7 @@
         <v>1.14285714</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>126</v>
       </c>
@@ -12351,7 +16488,7 @@
         <v>1.84375</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -12359,7 +16496,7 @@
         <v>1.84375</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -12367,7 +16504,7 @@
         <v>2.2666666700000002</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16">
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -12375,7 +16512,7 @@
         <v>0.44444444</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16">
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -12383,7 +16520,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -12391,7 +16528,7 @@
         <v>0.57142857000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -12399,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -12407,7 +16544,7 @@
         <v>0.66666667000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -12415,7 +16552,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -12423,7 +16560,7 @@
         <v>0.33333332999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -12431,7 +16568,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -12439,7 +16576,7 @@
         <v>0.28571428999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -12447,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16">
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -12455,7 +16592,7 @@
         <v>0.61538462000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16">
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -12463,7 +16600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16">
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -12471,7 +16608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -12479,7 +16616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -12487,7 +16624,7 @@
         <v>2.6666666700000001</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -12495,7 +16632,7 @@
         <v>0.57142857000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -12503,7 +16640,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -12511,7 +16648,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16">
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -12519,7 +16656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
@@ -12527,7 +16664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
@@ -12535,7 +16672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16">
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -12543,7 +16680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16">
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
@@ -12551,7 +16688,7 @@
         <v>2.3333333299999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16">
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -12559,7 +16696,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
@@ -12567,7 +16704,7 @@
         <v>1.1764705900000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
@@ -12575,7 +16712,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -12583,7 +16720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16">
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
@@ -12591,7 +16728,7 @@
         <v>1.3333333300000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16">
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
@@ -12599,7 +16736,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
@@ -12607,7 +16744,7 @@
         <v>0.66666667000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16">
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
@@ -12615,7 +16752,7 @@
         <v>2.3636363600000001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16">
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -12623,7 +16760,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16">
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -12631,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16">
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -12639,7 +16776,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="16">
+    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
@@ -12647,7 +16784,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="16">
+    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -12655,7 +16792,7 @@
         <v>0.89655172000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="16">
+    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
@@ -12663,7 +16800,7 @@
         <v>1.47368421</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="16">
+    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
@@ -12671,7 +16808,7 @@
         <v>0.28571428999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="16">
+    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>127</v>
       </c>
@@ -12679,7 +16816,7 @@
         <v>0.22222222</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="16">
+    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>128</v>
       </c>
@@ -12687,7 +16824,7 @@
         <v>0.23529412</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="16">
+    <row r="71" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
@@ -12698,7 +16835,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="16">
+    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>129</v>
       </c>
@@ -12706,7 +16843,7 @@
         <v>2.5454545500000001</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="16">
+    <row r="73" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
@@ -12714,7 +16851,7 @@
         <v>0.30769231000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="16">
+    <row r="74" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
@@ -12722,7 +16859,7 @@
         <v>0.18181818</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="16">
+    <row r="75" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
@@ -12730,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="16">
+    <row r="76" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
@@ -12738,7 +16875,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="16">
+    <row r="77" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
@@ -12746,7 +16883,7 @@
         <v>0.85714285999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="16">
+    <row r="78" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
@@ -12754,7 +16891,7 @@
         <v>2.3478260899999999</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="16">
+    <row r="79" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
@@ -12762,7 +16899,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="16">
+    <row r="80" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
@@ -12770,7 +16907,7 @@
         <v>2.4705882400000001</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16">
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
@@ -12778,7 +16915,7 @@
         <v>0.57142857000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -12786,7 +16923,7 @@
         <v>1.5714285699999999</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16">
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
@@ -12794,7 +16931,7 @@
         <v>0.42857142999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
@@ -12802,7 +16939,7 @@
         <v>1.8823529400000001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>130</v>
       </c>
@@ -12810,7 +16947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
@@ -12818,7 +16955,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
@@ -12826,7 +16963,7 @@
         <v>0.61538462000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
@@ -12834,7 +16971,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16">
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
@@ -12842,7 +16979,7 @@
         <v>1.8333333300000001</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -12850,7 +16987,7 @@
         <v>1.3333333300000001</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16">
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
@@ -12858,7 +16995,7 @@
         <v>0.88888889000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -12866,7 +17003,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -12874,7 +17011,7 @@
         <v>1.1666666699999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16">
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -12882,7 +17019,7 @@
         <v>0.44444444</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16">
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
@@ -12890,7 +17027,7 @@
         <v>0.85714285999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>99</v>
       </c>
@@ -12898,7 +17035,7 @@
         <v>1.91304348</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16">
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>100</v>
       </c>
@@ -12906,7 +17043,7 @@
         <v>0.66666667000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>101</v>
       </c>
@@ -12914,7 +17051,7 @@
         <v>1.3333333300000001</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16">
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>102</v>
       </c>
@@ -12922,7 +17059,7 @@
         <v>0.76190475999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16">
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>103</v>
       </c>
@@ -12930,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16">
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>104</v>
       </c>
@@ -12938,7 +17075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16">
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>105</v>
       </c>
@@ -12946,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16">
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>106</v>
       </c>
@@ -12954,7 +17091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="16">
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>107</v>
       </c>
@@ -12962,7 +17099,7 @@
         <v>1.7777777800000001</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>108</v>
       </c>
@@ -12970,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16">
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>109</v>
       </c>
@@ -12978,7 +17115,7 @@
         <v>0.47058823999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>110</v>
       </c>
@@ -12986,7 +17123,7 @@
         <v>0.13333333</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16">
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>111</v>
       </c>
@@ -12994,7 +17131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="16">
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>112</v>
       </c>
@@ -13002,7 +17139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16">
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>113</v>
       </c>
@@ -13010,7 +17147,7 @@
         <v>2.4615384599999999</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16">
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>114</v>
       </c>
@@ -13018,7 +17155,7 @@
         <v>2.3076923100000002</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16">
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>115</v>
       </c>
@@ -13026,7 +17163,7 @@
         <v>1.4285714300000001</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="16">
+    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>116</v>
       </c>
@@ -13034,7 +17171,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="16">
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>117</v>
       </c>
@@ -13042,7 +17179,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F126" t="s">
         <v>132</v>
       </c>

--- a/LOTR.xlsx
+++ b/LOTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blaz/Desktop/LOTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC26F44-A54D-3F4E-8DBC-C8BD8A167081}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8C1414-163F-F749-B9D5-A532ACF266C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="620" windowWidth="22500" windowHeight="15360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="620" windowWidth="22500" windowHeight="15360" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="The Silmarillion" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,11 @@
     <sheet name="The Return of the King" sheetId="5" r:id="rId5"/>
     <sheet name="LOTR" sheetId="2" r:id="rId6"/>
     <sheet name="Combined" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'The Silmarillion'!$A$2:$A$29</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'The Silmarillion'!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Combined!$B$53:$B$114</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'The Silmarillion'!$B$2:$B$29</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'The Silmarillion'!$A$2:$A$29</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'The Silmarillion'!$B$1</definedName>
@@ -32,14 +32,13 @@
     <definedName name="_xlchart.v1.6" hidden="1">'The Silmarillion'!$A$2:$A$29</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'The Silmarillion'!$B$1</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'The Silmarillion'!$B$2:$B$29</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Combined!$A$53:$A$114</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="140">
   <si>
     <t>Polarity</t>
   </si>
@@ -439,6 +438,27 @@
   <si>
     <t>Use topic modeling to take a deeper look at chapters that have a polarity of 0</t>
   </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Hobbit</t>
+  </si>
+  <si>
+    <t>Fellowship</t>
+  </si>
+  <si>
+    <t>Two Towers</t>
+  </si>
+  <si>
+    <t>Simarillion</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Unique words</t>
+  </si>
 </sst>
 </file>
 
@@ -503,12 +523,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16221,7 +16242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87887A3-7736-3742-B909-B4291ED78001}">
   <dimension ref="A1:Y126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C95" zoomScale="106" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="C95" zoomScale="106" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
@@ -17154,4 +17175,90 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F86FE1A-7D86-F146-A17C-E80434683304}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3">
+        <v>148914</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="3">
+        <v>96180</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="3">
+        <v>182858</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="3">
+        <v>155947</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="3">
+        <v>132059</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/LOTR.xlsx
+++ b/LOTR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blaz/Desktop/LOTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8C1414-163F-F749-B9D5-A532ACF266C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C343DFEB-DBE5-A44A-8A4C-8B7312C2951E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="620" windowWidth="22500" windowHeight="15360" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="The Silmarillion" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <sheet name="Combined" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'The Silmarillion'!$A$2:$A$29</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'The Silmarillion'!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'The Silmarillion'!$B$2:$B$29</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'The Silmarillion'!$A$2:$A$29</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'The Silmarillion'!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'The Silmarillion'!$B$2:$B$29</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'The Silmarillion'!$A$2:$A$29</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'The Silmarillion'!$B$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'The Silmarillion'!$B$2:$B$29</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="318">
   <si>
     <t>Polarity</t>
   </si>
@@ -439,32 +428,566 @@
     <t>Use topic modeling to take a deeper look at chapters that have a polarity of 0</t>
   </si>
   <si>
-    <t>Book</t>
-  </si>
-  <si>
-    <t>Hobbit</t>
-  </si>
-  <si>
-    <t>Fellowship</t>
-  </si>
-  <si>
-    <t>Two Towers</t>
-  </si>
-  <si>
-    <t>Simarillion</t>
-  </si>
-  <si>
-    <t>Length</t>
-  </si>
-  <si>
-    <t>Unique words</t>
+    <t>long</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>began</t>
+  </si>
+  <si>
+    <t>beren</t>
+  </si>
+  <si>
+    <t>suddenly</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>turned</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>saw</t>
+  </si>
+  <si>
+    <t>hills</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>tale</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>silent</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>pony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hill </t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>stood</t>
+  </si>
+  <si>
+    <t>answered</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>shapes</t>
+  </si>
+  <si>
+    <t>shadow</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>feet</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>elves</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">line </t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>hobbits</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>orcs</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>taken</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>slain</t>
+  </si>
+  <si>
+    <t>roaring</t>
+  </si>
+  <si>
+    <t>mordor</t>
+  </si>
+  <si>
+    <t>alas</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>lands</t>
+  </si>
+  <si>
+    <t>sprang</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>swift</t>
+  </si>
+  <si>
+    <t>eyes</t>
+  </si>
+  <si>
+    <t>horn</t>
+  </si>
+  <si>
+    <t>laid</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>arrows</t>
+  </si>
+  <si>
+    <t>dwarves</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>bore</t>
+  </si>
+  <si>
+    <t>saruman</t>
+  </si>
+  <si>
+    <t>swords</t>
+  </si>
+  <si>
+    <t>shore</t>
+  </si>
+  <si>
+    <t>seen</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>gondor</t>
+  </si>
+  <si>
+    <t>dread</t>
+  </si>
+  <si>
+    <t>doubt</t>
+  </si>
+  <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seen </t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>nearer</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>darkness</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>walls</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>leading</t>
+  </si>
+  <si>
+    <t>don</t>
+  </si>
+  <si>
+    <t>woods</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>words</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>lord</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>ships</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>foes</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>borne</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>wrath</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>bity</t>
+  </si>
+  <si>
+    <t>cried</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>tears</t>
+  </si>
+  <si>
+    <t>took</t>
+  </si>
+  <si>
+    <t>banner</t>
+  </si>
+  <si>
+    <t>despair</t>
+  </si>
+  <si>
+    <t>fury</t>
+  </si>
+  <si>
+    <t>servants</t>
+  </si>
+  <si>
+    <t>tower</t>
+  </si>
+  <si>
+    <t>lies</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>given</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>fields</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>army</t>
+  </si>
+  <si>
+    <t>forth</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>silenece</t>
+  </si>
+  <si>
+    <t>destroyed</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>assault</t>
+  </si>
+  <si>
+    <t>scouts</t>
+  </si>
+  <si>
+    <t>blew</t>
+  </si>
+  <si>
+    <t>watched</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>sauron</t>
+  </si>
+  <si>
+    <t>lay</t>
+  </si>
+  <si>
+    <t>heralds</t>
+  </si>
+  <si>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>blade</t>
+  </si>
+  <si>
+    <t>rohan</t>
+  </si>
+  <si>
+    <t>eastward</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>miles</t>
+  </si>
+  <si>
+    <t>clouds</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>gone</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>dreadful</t>
+  </si>
+  <si>
+    <t>burden</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>lying</t>
+  </si>
+  <si>
+    <t>worn</t>
+  </si>
+  <si>
+    <t>coming</t>
+  </si>
+  <si>
+    <t>tearing</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>deep</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>breast</t>
+  </si>
+  <si>
+    <t>muttered</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>felt</t>
+  </si>
+  <si>
+    <t>slowly</t>
+  </si>
+  <si>
+    <t>head</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14605,13 +15128,13 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -14619,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -14627,7 +15150,7 @@
         <v>1.666666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -14635,7 +15158,7 @@
         <v>3.333333333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -14643,7 +15166,7 @@
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -14651,7 +15174,7 @@
         <v>2.666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -14659,7 +15182,7 @@
         <v>2.285714285714286</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -14667,7 +15190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -14675,7 +15198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -14683,7 +15206,7 @@
         <v>2.666666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -14691,7 +15214,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -14699,7 +15222,7 @@
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -14707,7 +15230,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -14715,7 +15238,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -14723,7 +15246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -14731,7 +15254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -14739,7 +15262,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -14747,7 +15270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -14755,7 +15278,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -14763,7 +15286,7 @@
         <v>1.714285714285714</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -14771,7 +15294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -14779,7 +15302,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -14787,7 +15310,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -14795,7 +15318,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -14803,7 +15326,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -14811,7 +15334,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -14819,7 +15342,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -14827,7 +15350,7 @@
         <v>1.142857142857143</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -14835,7 +15358,7 @@
         <v>1.84375</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -14857,15 +15380,15 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -14873,7 +15396,7 @@
         <v>2.2666666666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -14881,7 +15404,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -14889,7 +15412,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -14897,7 +15420,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -14905,7 +15428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -14913,7 +15436,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -14921,7 +15444,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -14929,7 +15452,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -14937,7 +15460,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -14945,7 +15468,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -14953,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -14961,7 +15484,7 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -14969,7 +15492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -14977,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -14985,7 +15508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -14993,7 +15516,7 @@
         <v>2.666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -15001,7 +15524,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -15009,7 +15532,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -15031,13 +15554,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -15045,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -15053,7 +15576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -15061,7 +15584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -15069,7 +15592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -15077,7 +15600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -15085,7 +15608,7 @@
         <v>2.333333333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -15093,7 +15616,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -15101,7 +15624,7 @@
         <v>1.1764705882352939</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -15109,7 +15632,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -15117,7 +15640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -15125,7 +15648,7 @@
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -15133,7 +15656,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -15141,7 +15664,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -15149,7 +15672,7 @@
         <v>2.3636363636363642</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -15157,7 +15680,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
@@ -15165,7 +15688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -15173,7 +15696,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
@@ -15181,7 +15704,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -15189,7 +15712,7 @@
         <v>0.89655172413793105</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
@@ -15197,7 +15720,7 @@
         <v>1.4736842105263159</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -15205,7 +15728,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
@@ -15213,7 +15736,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -15221,7 +15744,7 @@
         <v>0.23529411764705879</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>72</v>
       </c>
@@ -15229,7 +15752,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -15237,7 +15760,7 @@
         <v>2.545454545454545</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -15245,7 +15768,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -15267,9 +15790,9 @@
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -15277,7 +15800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -15285,7 +15808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -15293,7 +15816,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -15301,7 +15824,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -15309,7 +15832,7 @@
         <v>2.347826086956522</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -15317,7 +15840,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -15325,7 +15848,7 @@
         <v>2.4705882352941182</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -15333,7 +15856,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
@@ -15341,7 +15864,7 @@
         <v>1.571428571428571</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -15349,7 +15872,7 @@
         <v>0.42857142857142849</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>86</v>
       </c>
@@ -15357,7 +15880,7 @@
         <v>1.882352941176471</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>87</v>
       </c>
@@ -15365,7 +15888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>88</v>
       </c>
@@ -15373,7 +15896,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
@@ -15381,7 +15904,7 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>90</v>
       </c>
@@ -15389,7 +15912,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
@@ -15397,7 +15920,7 @@
         <v>1.833333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>92</v>
       </c>
@@ -15405,7 +15928,7 @@
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -15413,7 +15936,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>94</v>
       </c>
@@ -15421,7 +15944,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -15429,7 +15952,7 @@
         <v>1.166666666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>96</v>
       </c>
@@ -15437,7 +15960,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -15459,13 +15982,13 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -15473,7 +15996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -15481,7 +16004,7 @@
         <v>1.9130434782608701</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -15489,7 +16012,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
@@ -15497,7 +16020,7 @@
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -15505,7 +16028,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
@@ -15513,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
@@ -15521,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -15529,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
@@ -15537,7 +16060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>107</v>
       </c>
@@ -15545,7 +16068,7 @@
         <v>1.7777777777777779</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>108</v>
       </c>
@@ -15553,7 +16076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
@@ -15561,7 +16084,7 @@
         <v>0.47058823529411759</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -15569,7 +16092,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>111</v>
       </c>
@@ -15577,7 +16100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
@@ -15585,7 +16108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -15593,7 +16116,7 @@
         <v>2.4615384615384621</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>114</v>
       </c>
@@ -15601,7 +16124,7 @@
         <v>2.307692307692307</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>115</v>
       </c>
@@ -15609,7 +16132,7 @@
         <v>1.428571428571429</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
@@ -15617,7 +16140,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>117</v>
       </c>
@@ -15639,7 +16162,7 @@
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -15652,7 +16175,7 @@
     <col min="14" max="14" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -15670,7 +16193,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -15696,7 +16219,7 @@
         <v>1.9130434782608701</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -15722,7 +16245,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -15748,7 +16271,7 @@
         <v>1.333333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -15774,7 +16297,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -15800,7 +16323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -15826,7 +16349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -15852,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -15878,7 +16401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -15904,7 +16427,7 @@
         <v>1.7777777777777779</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -15930,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -15956,7 +16479,7 @@
         <v>0.47058823529411759</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -15982,7 +16505,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -16008,7 +16531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -16034,7 +16557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -16060,7 +16583,7 @@
         <v>2.4615384615384621</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -16086,7 +16609,7 @@
         <v>2.307692307692307</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -16112,7 +16635,7 @@
         <v>1.428571428571429</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -16138,7 +16661,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -16164,7 +16687,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
         <v>69</v>
       </c>
@@ -16178,7 +16701,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E22" s="1" t="s">
         <v>70</v>
       </c>
@@ -16192,7 +16715,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E23" s="1" t="s">
         <v>71</v>
       </c>
@@ -16200,7 +16723,7 @@
         <v>0.23529411764705879</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E24" s="1" t="s">
         <v>72</v>
       </c>
@@ -16208,7 +16731,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E25" s="1" t="s">
         <v>73</v>
       </c>
@@ -16216,7 +16739,7 @@
         <v>2.545454545454545</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E26" s="1" t="s">
         <v>74</v>
       </c>
@@ -16224,7 +16747,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E27" s="1" t="s">
         <v>75</v>
       </c>
@@ -16246,19 +16769,19 @@
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -16266,7 +16789,7 @@
         <v>1.6666666699999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -16274,7 +16797,7 @@
         <v>3.3333333299999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -16282,7 +16805,7 @@
         <v>2.8571428600000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -16290,7 +16813,7 @@
         <v>2.6666666700000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -16298,7 +16821,7 @@
         <v>2.28571429</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -16306,7 +16829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>121</v>
       </c>
@@ -16314,7 +16837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>122</v>
       </c>
@@ -16322,7 +16845,7 @@
         <v>2.6666666700000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -16330,7 +16853,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -16338,7 +16861,7 @@
         <v>1.3333333300000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -16346,7 +16869,7 @@
         <v>0.72727273000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -16354,7 +16877,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -16362,7 +16885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -16370,7 +16893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -16378,7 +16901,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -16386,7 +16909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -16394,7 +16917,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -16402,7 +16925,7 @@
         <v>1.71428571</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -16410,7 +16933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -16418,7 +16941,7 @@
         <v>0.90909090999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>123</v>
       </c>
@@ -16426,7 +16949,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -16434,7 +16957,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>124</v>
       </c>
@@ -16442,7 +16965,7 @@
         <v>0.66666667000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -16450,7 +16973,7 @@
         <v>0.66666667000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -16458,7 +16981,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>125</v>
       </c>
@@ -16466,7 +16989,7 @@
         <v>1.14285714</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>126</v>
       </c>
@@ -16474,7 +16997,7 @@
         <v>1.84375</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -16482,7 +17005,7 @@
         <v>1.84375</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -16490,7 +17013,7 @@
         <v>2.2666666700000002</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16">
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -16498,7 +17021,7 @@
         <v>0.44444444</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16">
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -16506,7 +17029,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -16514,7 +17037,7 @@
         <v>0.57142857000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -16522,7 +17045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -16530,7 +17053,7 @@
         <v>0.66666667000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -16538,7 +17061,7 @@
         <v>1.375</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -16546,7 +17069,7 @@
         <v>0.33333332999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -16554,7 +17077,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -16562,7 +17085,7 @@
         <v>0.28571428999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -16570,7 +17093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16">
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -16578,7 +17101,7 @@
         <v>0.61538462000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16">
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -16586,7 +17109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16">
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -16594,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -16602,7 +17125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -16610,7 +17133,7 @@
         <v>2.6666666700000001</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -16618,7 +17141,7 @@
         <v>0.57142857000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -16626,7 +17149,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -16634,7 +17157,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16">
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -16642,7 +17165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
@@ -16650,7 +17173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
@@ -16658,7 +17181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16">
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -16666,7 +17189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16">
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
@@ -16674,7 +17197,7 @@
         <v>2.3333333299999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16">
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -16682,7 +17205,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
@@ -16690,7 +17213,7 @@
         <v>1.1764705900000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
@@ -16698,7 +17221,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -16706,7 +17229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16">
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
@@ -16714,7 +17237,7 @@
         <v>1.3333333300000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16">
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
@@ -16722,7 +17245,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
@@ -16730,7 +17253,7 @@
         <v>0.66666667000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16">
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
@@ -16738,7 +17261,7 @@
         <v>2.3636363600000001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16">
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
@@ -16746,7 +17269,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16">
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -16754,7 +17277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16">
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -16762,7 +17285,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="16">
+    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
@@ -16770,7 +17293,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="16">
+    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -16778,7 +17301,7 @@
         <v>0.89655172000000005</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="16">
+    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
@@ -16786,7 +17309,7 @@
         <v>1.47368421</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="16">
+    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
@@ -16794,7 +17317,7 @@
         <v>0.28571428999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="16">
+    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>127</v>
       </c>
@@ -16802,7 +17325,7 @@
         <v>0.22222222</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="16">
+    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>128</v>
       </c>
@@ -16810,7 +17333,7 @@
         <v>0.23529412</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="16">
+    <row r="71" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
@@ -16821,7 +17344,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="16">
+    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>129</v>
       </c>
@@ -16829,7 +17352,7 @@
         <v>2.5454545500000001</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="16">
+    <row r="73" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
@@ -16837,7 +17360,7 @@
         <v>0.30769231000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="16">
+    <row r="74" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
@@ -16845,7 +17368,7 @@
         <v>0.18181818</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="16">
+    <row r="75" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
@@ -16853,7 +17376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="16">
+    <row r="76" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
@@ -16861,7 +17384,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="16">
+    <row r="77" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
@@ -16869,7 +17392,7 @@
         <v>0.85714285999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="16">
+    <row r="78" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
@@ -16877,7 +17400,7 @@
         <v>2.3478260899999999</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="16">
+    <row r="79" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
@@ -16885,7 +17408,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="16">
+    <row r="80" spans="1:25" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
@@ -16893,7 +17416,7 @@
         <v>2.4705882400000001</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16">
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
@@ -16901,7 +17424,7 @@
         <v>0.57142857000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -16909,7 +17432,7 @@
         <v>1.5714285699999999</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16">
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
@@ -16917,7 +17440,7 @@
         <v>0.42857142999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
@@ -16925,7 +17448,7 @@
         <v>1.8823529400000001</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>130</v>
       </c>
@@ -16933,7 +17456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
@@ -16941,7 +17464,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
@@ -16949,7 +17472,7 @@
         <v>0.61538462000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
@@ -16957,7 +17480,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16">
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
@@ -16965,7 +17488,7 @@
         <v>1.8333333300000001</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -16973,7 +17496,7 @@
         <v>1.3333333300000001</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16">
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
@@ -16981,7 +17504,7 @@
         <v>0.88888889000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="16">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -16989,7 +17512,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="16">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -16997,7 +17520,7 @@
         <v>1.1666666699999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="16">
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -17005,7 +17528,7 @@
         <v>0.44444444</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="16">
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
@@ -17013,7 +17536,7 @@
         <v>0.85714285999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="16">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>99</v>
       </c>
@@ -17021,7 +17544,7 @@
         <v>1.91304348</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="16">
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>100</v>
       </c>
@@ -17029,7 +17552,7 @@
         <v>0.66666667000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="16">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>101</v>
       </c>
@@ -17037,7 +17560,7 @@
         <v>1.3333333300000001</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="16">
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>102</v>
       </c>
@@ -17045,7 +17568,7 @@
         <v>0.76190475999999996</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="16">
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>103</v>
       </c>
@@ -17053,7 +17576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="16">
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>104</v>
       </c>
@@ -17061,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="16">
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>105</v>
       </c>
@@ -17069,7 +17592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="16">
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>106</v>
       </c>
@@ -17077,7 +17600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="16">
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>107</v>
       </c>
@@ -17085,7 +17608,7 @@
         <v>1.7777777800000001</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="16">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>108</v>
       </c>
@@ -17093,7 +17616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="16">
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>109</v>
       </c>
@@ -17101,7 +17624,7 @@
         <v>0.47058823999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="16">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>110</v>
       </c>
@@ -17109,7 +17632,7 @@
         <v>0.13333333</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="16">
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>111</v>
       </c>
@@ -17117,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="16">
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>112</v>
       </c>
@@ -17125,7 +17648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="16">
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>113</v>
       </c>
@@ -17133,7 +17656,7 @@
         <v>2.4615384599999999</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="16">
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>114</v>
       </c>
@@ -17141,7 +17664,7 @@
         <v>2.3076923100000002</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16">
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>115</v>
       </c>
@@ -17149,7 +17672,7 @@
         <v>1.4285714300000001</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="16">
+    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>116</v>
       </c>
@@ -17157,7 +17680,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="16">
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>117</v>
       </c>
@@ -17165,7 +17688,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F126" t="s">
         <v>132</v>
       </c>
@@ -17179,82 +17702,1401 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F86FE1A-7D86-F146-A17C-E80434683304}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>138</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="3">
-        <v>148914</v>
-      </c>
-      <c r="C2" s="3">
-        <v>7145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="3">
-        <v>96180</v>
-      </c>
-      <c r="C3" s="3">
-        <v>6187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="3">
-        <v>182858</v>
-      </c>
-      <c r="C4" s="3">
-        <v>8528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="3">
-        <v>155947</v>
-      </c>
-      <c r="C5" s="3">
-        <v>7758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="3">
-        <v>132059</v>
-      </c>
-      <c r="C6" s="3">
-        <v>7008</v>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
